--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3269.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3269.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.12678770987852</v>
+        <v>2.819621801376343</v>
       </c>
       <c r="B1">
-        <v>1.597618775027045</v>
+        <v>3.14648699760437</v>
       </c>
       <c r="C1">
-        <v>2.958708901160128</v>
+        <v>1.767034411430359</v>
       </c>
       <c r="D1">
-        <v>5.201033180642407</v>
+        <v>1.416489243507385</v>
       </c>
       <c r="E1">
-        <v>1.325821142382543</v>
+        <v>1.313721060752869</v>
       </c>
     </row>
   </sheetData>
